--- a/codelist_generator/codelijst.xlsx
+++ b/codelist_generator/codelijst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Verkeersmetingen\codelist_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A35FD5D-D2CB-46F6-9C26-85096D8AA9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A01C67-503B-4487-9515-DE69D2171A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{E3303C72-65BC-460E-B098-279069D7A6E2}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{E3303C72-65BC-460E-B098-279069D7A6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="VkmVoertuigType" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="208">
   <si>
     <t>Klasse</t>
   </si>
@@ -59,9 +59,6 @@
     <t>VkmVoertuigType</t>
   </si>
   <si>
-    <t>Codelijst van voertuigtype</t>
-  </si>
-  <si>
     <t>VehicleType</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>VkmMeetInstrumentType</t>
   </si>
   <si>
-    <t>Codelijst van meetinstrumenttype</t>
-  </si>
-  <si>
     <t>MeasureInstrumentType</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>VkmRijstrookType</t>
   </si>
   <si>
-    <t>codelijst van rijstrooktype</t>
-  </si>
-  <si>
     <t>LaneType</t>
   </si>
   <si>
@@ -305,12 +296,6 @@
     <t>VkmVerkeersKenmerkType</t>
   </si>
   <si>
-    <t>codelijst van verkeerskenmerktype</t>
-  </si>
-  <si>
-    <t>WrongAttributeType</t>
-  </si>
-  <si>
     <t>V85</t>
   </si>
   <si>
@@ -651,6 +636,33 @@
   </si>
   <si>
     <t>ingebruik</t>
+  </si>
+  <si>
+    <t>Codelijst van voertuigtypes</t>
+  </si>
+  <si>
+    <t>Codelijst van meetinstrumenttypes</t>
+  </si>
+  <si>
+    <t>codelijst van rijstrooktypes</t>
+  </si>
+  <si>
+    <t>codelijst van verkeerskenmerktypes</t>
+  </si>
+  <si>
+    <t>TrafficAttributeType</t>
+  </si>
+  <si>
+    <t>VerkeersKenmerkType</t>
+  </si>
+  <si>
+    <t>RijstrookType</t>
+  </si>
+  <si>
+    <t>MeetInstrumentType</t>
+  </si>
+  <si>
+    <t>VoertuigType</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD49523-3A2F-4474-A1CC-F9530B41E984}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1046,186 +1058,186 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1237,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F526894C-B8D4-40B3-A006-81FC3AE87F9D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1268,172 +1280,172 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1445,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8644C1F-B6A9-4A03-8253-A64EF1B9A9BE}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1461,7 +1473,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1470,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1484,623 +1496,623 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
         <v>165</v>
       </c>
-      <c r="D12" t="s">
-        <v>170</v>
-      </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2126,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2144,104 +2156,104 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
         <v>155</v>
       </c>
-      <c r="B6" t="s">
-        <v>160</v>
-      </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2250,14 +2262,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fe43d49-4f67-4486-9d33-01c03a937144">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2515,21 +2525,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fe43d49-4f67-4486-9d33-01c03a937144">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9183F7A-64EE-48EC-89DD-9A50891C3E8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767BCD5D-D9CA-4F41-921C-9506A605E799}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1fe43d49-4f67-4486-9d33-01c03a937144"/>
-    <ds:schemaRef ds:uri="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2555,9 +2564,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767BCD5D-D9CA-4F41-921C-9506A605E799}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9183F7A-64EE-48EC-89DD-9A50891C3E8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1fe43d49-4f67-4486-9d33-01c03a937144"/>
+    <ds:schemaRef ds:uri="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/codelist_generator/codelijst.xlsx
+++ b/codelist_generator/codelijst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Verkeersmetingen\codelist_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A01C67-503B-4487-9515-DE69D2171A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1DDE3B-1FC0-4784-B801-50707E8D5411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{E3303C72-65BC-460E-B098-279069D7A6E2}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="3" xr2:uid="{E3303C72-65BC-460E-B098-279069D7A6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="VkmVoertuigType" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="184">
   <si>
     <t>Klasse</t>
   </si>
@@ -62,96 +62,21 @@
     <t>VehicleType</t>
   </si>
   <si>
-    <t>Voetganger</t>
-  </si>
-  <si>
-    <t>Een persoon die zich te voet verplaatst</t>
-  </si>
-  <si>
     <t>ped</t>
   </si>
   <si>
-    <t>Fietser</t>
-  </si>
-  <si>
-    <t>een ongemotoriseerd voertuig met trappers al dan niet met trapondersteuning</t>
-  </si>
-  <si>
     <t>bike</t>
   </si>
   <si>
-    <t>Paarden</t>
-  </si>
-  <si>
-    <t>Personen die zich te paard verplaatsen</t>
-  </si>
-  <si>
-    <t>horse</t>
-  </si>
-  <si>
-    <t>Bromfiets</t>
-  </si>
-  <si>
-    <t>Een tweewielig motorvoertuig met verbrandingsmotor van max 50CC en een snelheid begrensd tot 45 km/u</t>
-  </si>
-  <si>
-    <t>moped</t>
-  </si>
-  <si>
     <t>auto</t>
   </si>
   <si>
-    <t>Een vierwielig motorvoertuig dat bestuurd wordt door personen met rijbewijs B</t>
-  </si>
-  <si>
-    <t>motorfiets</t>
-  </si>
-  <si>
-    <t>Een tweewielig motorvoertuig met verbrandingsmotor van minstens 50cc en een onbegrensde snelheid, waarvoor rijbewijs A nodig is</t>
-  </si>
-  <si>
-    <t>mbike</t>
-  </si>
-  <si>
-    <t>Landbouwvoertuigen</t>
-  </si>
-  <si>
-    <t>elk landbouw- of bosbouwvoertuig op wielen of rupsbanden, dat voornamelijk voor tractiedoeleinden in de land- of bosbouw</t>
-  </si>
-  <si>
-    <t>agri</t>
-  </si>
-  <si>
-    <t>bestelwagen</t>
-  </si>
-  <si>
-    <t>Een gemotoriseerd voertuig bedoeld voor het vervoer van goederen waarvan de toegelaten massa niet meer is dan 3500 kg, of bedoeld voor het vervoer van personen met niet meer dan 9 zitplaatsen (chauffeur +8)</t>
-  </si>
-  <si>
-    <t>lfreight</t>
-  </si>
-  <si>
-    <t>lichte vracht</t>
-  </si>
-  <si>
     <t>vrachtwagen</t>
   </si>
   <si>
-    <t>Een combinatie bestaande uit een motorvoertuig met een of meerdere opleggers, bedoeld voor het vervoer van goederen met een toegelaten massa van meer dan 3500 k</t>
-  </si>
-  <si>
     <t>truck</t>
   </si>
   <si>
-    <t>Gelede vrachtwagens</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
-    <t>Een motorvoertuig voor het vervoer van personen met meer dan 9 zitplaatsen</t>
-  </si>
-  <si>
     <t>VkmMeetInstrumentType</t>
   </si>
   <si>
@@ -329,18 +254,6 @@
     <t>fietser</t>
   </si>
   <si>
-    <t>paarden</t>
-  </si>
-  <si>
-    <t>bromfiets</t>
-  </si>
-  <si>
-    <t>landbouwvoertuigen</t>
-  </si>
-  <si>
-    <t>bus</t>
-  </si>
-  <si>
     <t>bushalte</t>
   </si>
   <si>
@@ -663,13 +576,28 @@
   </si>
   <si>
     <t>VoertuigType</t>
+  </si>
+  <si>
+    <t>een tweewielig voertuig</t>
+  </si>
+  <si>
+    <t>gelede vrachtwagens</t>
+  </si>
+  <si>
+    <t>een persoon die zich te voet verplaatst</t>
+  </si>
+  <si>
+    <t>een vierwielig motorvoertuig dat bestuurd wordt door personen met rijbewijs B (inclusief lichte vracht en minibus)</t>
+  </si>
+  <si>
+    <t>een combinatie bestaande uit een motorvoertuig met een of meerdere opleggers, bedoeld voor het vervoer van goederen met een toegelaten massa van meer dan 3500 k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +608,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
@@ -704,9 +638,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1021,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD49523-3A2F-4474-A1CC-F9530B41E984}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1032,11 +967,11 @@
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="168.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,192 +988,102 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>198</v>
-      </c>
+      <c r="D6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1250,7 +1095,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1280,172 +1125,172 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1303,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B3" sqref="B3:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1473,7 +1318,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1482,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1496,623 +1341,623 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
         <v>138</v>
       </c>
-      <c r="D16" t="s">
-        <v>167</v>
-      </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
         <v>140</v>
       </c>
-      <c r="D18" t="s">
-        <v>169</v>
-      </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
         <v>141</v>
       </c>
-      <c r="D19" t="s">
-        <v>170</v>
-      </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
         <v>142</v>
       </c>
-      <c r="D20" t="s">
-        <v>171</v>
-      </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
         <v>144</v>
       </c>
-      <c r="D25" t="s">
-        <v>173</v>
-      </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2125,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4970469-9165-4AAC-9E84-794859EBDEA5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2156,104 +2001,104 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2262,12 +2107,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fe43d49-4f67-4486-9d33-01c03a937144">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2525,20 +2372,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fe43d49-4f67-4486-9d33-01c03a937144">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767BCD5D-D9CA-4F41-921C-9506A605E799}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9183F7A-64EE-48EC-89DD-9A50891C3E8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1fe43d49-4f67-4486-9d33-01c03a937144"/>
+    <ds:schemaRef ds:uri="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2564,12 +2412,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9183F7A-64EE-48EC-89DD-9A50891C3E8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767BCD5D-D9CA-4F41-921C-9506A605E799}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1fe43d49-4f67-4486-9d33-01c03a937144"/>
-    <ds:schemaRef ds:uri="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/codelist_generator/codelijst.xlsx
+++ b/codelist_generator/codelijst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Verkeersmetingen\codelist_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1DDE3B-1FC0-4784-B801-50707E8D5411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9196B83B-589D-44C6-9B18-90B9E25DC5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="3" xr2:uid="{E3303C72-65BC-460E-B098-279069D7A6E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{E3303C72-65BC-460E-B098-279069D7A6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="VkmVoertuigType" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="185">
   <si>
     <t>Klasse</t>
   </si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>een combinatie bestaande uit een motorvoertuig met een of meerdere opleggers, bedoeld voor het vervoer van goederen met een toegelaten massa van meer dan 3500 k</t>
+  </si>
+  <si>
+    <t>pechstrook</t>
   </si>
 </sst>
 </file>
@@ -1302,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8644C1F-B6A9-4A03-8253-A64EF1B9A9BE}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B28"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1379,7 +1382,7 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
         <v>169</v>
@@ -1402,7 +1405,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
         <v>169</v>
@@ -1425,7 +1428,7 @@
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>169</v>
@@ -1448,7 +1451,7 @@
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>169</v>
@@ -1471,7 +1474,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
         <v>169</v>
@@ -1494,7 +1497,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
         <v>169</v>
@@ -1517,7 +1520,7 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
         <v>169</v>
@@ -1540,7 +1543,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
         <v>169</v>
@@ -1563,7 +1566,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="G11" t="s">
         <v>169</v>
@@ -1586,7 +1589,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
         <v>169</v>
@@ -1609,7 +1612,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
         <v>169</v>
@@ -1632,7 +1635,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
         <v>169</v>
@@ -1655,7 +1658,7 @@
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
         <v>169</v>
@@ -1678,7 +1681,7 @@
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
         <v>169</v>
@@ -1701,7 +1704,7 @@
         <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
         <v>169</v>
@@ -1724,7 +1727,7 @@
         <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
         <v>169</v>
@@ -1747,7 +1750,7 @@
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
         <v>169</v>
@@ -1770,7 +1773,7 @@
         <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
         <v>169</v>
@@ -1793,7 +1796,7 @@
         <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
         <v>169</v>
@@ -1816,7 +1819,7 @@
         <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s">
         <v>169</v>
@@ -1839,7 +1842,7 @@
         <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
         <v>169</v>
@@ -1862,7 +1865,7 @@
         <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
         <v>169</v>
@@ -1885,7 +1888,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
         <v>169</v>
@@ -1908,7 +1911,7 @@
         <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s">
         <v>169</v>
@@ -1931,7 +1934,7 @@
         <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
         <v>169</v>
@@ -1954,7 +1957,7 @@
         <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
         <v>169</v>
@@ -1970,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4970469-9165-4AAC-9E84-794859EBDEA5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/codelist_generator/codelijst.xlsx
+++ b/codelist_generator/codelijst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Verkeersmetingen\codelist_generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brechtvandevyvere/Documents/OSLOthema-verkeersmetingen/codelist_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9196B83B-589D-44C6-9B18-90B9E25DC5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29540F4E-EA4C-1A40-A83F-0ED35CFC5588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{E3303C72-65BC-460E-B098-279069D7A6E2}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="3" xr2:uid="{E3303C72-65BC-460E-B098-279069D7A6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="VkmVoertuigType" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="VkmRijstrookType" sheetId="12" r:id="rId3"/>
     <sheet name="VkmVerkeersKenmerkType" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="203">
   <si>
     <t>Klasse</t>
   </si>
@@ -594,6 +594,60 @@
   </si>
   <si>
     <t>pechstrook</t>
+  </si>
+  <si>
+    <t>actuele_tijd</t>
+  </si>
+  <si>
+    <t>actuele tijd</t>
+  </si>
+  <si>
+    <t>vertraging</t>
+  </si>
+  <si>
+    <t>optimale_tijd</t>
+  </si>
+  <si>
+    <t>de huidige tijd gemeten om een traject af te leggen</t>
+  </si>
+  <si>
+    <t>de optimale tijd om een traject af te leggen</t>
+  </si>
+  <si>
+    <t>de tijd waarin de actuele tijd afwijkt van de optimale tijd om een traject af te leggen</t>
+  </si>
+  <si>
+    <t>optimale tijd</t>
+  </si>
+  <si>
+    <t>trajectgemiddelde snelheid</t>
+  </si>
+  <si>
+    <t>optimale_trajectgemiddelde_snelheid</t>
+  </si>
+  <si>
+    <t>gemiddelde snelheid gemeten over een traject (harmonisch gemiddelde)</t>
+  </si>
+  <si>
+    <t>optimale trajectgemiddelde snelheid</t>
+  </si>
+  <si>
+    <t>actualTt</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>actualKmH</t>
+  </si>
+  <si>
+    <t>optimalKmH</t>
+  </si>
+  <si>
+    <t>optimalTt</t>
+  </si>
+  <si>
+    <t>de optimale gemiddelde snelheid om een traject af te leggen</t>
   </si>
 </sst>
 </file>
@@ -663,9 +717,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -703,7 +757,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -809,7 +863,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -951,7 +1005,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -965,16 +1019,16 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="168.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="168.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +1062,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -1026,7 +1080,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
@@ -1044,7 +1098,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1116,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1134,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1101,15 +1155,15 @@
       <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="120.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1143,7 +1197,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1160,7 +1214,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1177,7 +1231,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1194,7 +1248,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1211,7 +1265,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1282,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1245,7 +1299,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1262,7 +1316,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1279,7 +1333,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1305,21 +1359,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8644C1F-B6A9-4A03-8253-A64EF1B9A9BE}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="173.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="115.75" customWidth="1"/>
-    <col min="5" max="6" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="173.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.6640625" customWidth="1"/>
+    <col min="5" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -1342,7 +1396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1365,7 +1419,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1388,7 +1442,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1411,7 +1465,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1434,7 +1488,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1457,7 +1511,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1480,7 +1534,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1503,7 +1557,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1526,7 +1580,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1549,7 +1603,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1572,7 +1626,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1595,7 +1649,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1618,7 +1672,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1641,7 +1695,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1664,7 +1718,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1687,7 +1741,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1710,7 +1764,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1733,7 +1787,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1756,7 +1810,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1779,7 +1833,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1802,7 +1856,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1825,7 +1879,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1848,7 +1902,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1871,7 +1925,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1894,7 +1948,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1917,7 +1971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1940,7 +1994,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1971,21 +2025,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4970469-9165-4AAC-9E84-794859EBDEA5}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2002,7 +2056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -2019,7 +2073,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -2036,7 +2090,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -2053,7 +2107,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -2070,7 +2124,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -2087,7 +2141,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -2101,6 +2155,91 @@
         <v>67</v>
       </c>
       <c r="E7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2110,14 +2249,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fe43d49-4f67-4486-9d33-01c03a937144">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2375,21 +2512,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fe43d49-4f67-4486-9d33-01c03a937144">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9183F7A-64EE-48EC-89DD-9A50891C3E8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767BCD5D-D9CA-4F41-921C-9506A605E799}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1fe43d49-4f67-4486-9d33-01c03a937144"/>
-    <ds:schemaRef ds:uri="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2415,9 +2551,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767BCD5D-D9CA-4F41-921C-9506A605E799}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9183F7A-64EE-48EC-89DD-9A50891C3E8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1fe43d49-4f67-4486-9d33-01c03a937144"/>
+    <ds:schemaRef ds:uri="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>